--- a/se/planificacion/Plan de Iteración.xlsx
+++ b/se/planificacion/Plan de Iteración.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="28320" windowHeight="12855"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="28320" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="1ro" sheetId="1" r:id="rId1"/>
+    <sheet name="2do" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$E$1:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1ro'!$E$1:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2do'!$B$1:$E$227</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="202">
   <si>
     <t>Documento de Cruce: Proceso – Actividad – CUN.</t>
   </si>
@@ -190,13 +191,448 @@
   </si>
   <si>
     <t>INICIO</t>
+  </si>
+  <si>
+    <t>Iteración 1</t>
+  </si>
+  <si>
+    <t>Modelado del Negocio</t>
+  </si>
+  <si>
+    <t>Requerimientos</t>
+  </si>
+  <si>
+    <t>Gestión de Proyecto</t>
+  </si>
+  <si>
+    <t>Iteración 2</t>
+  </si>
+  <si>
+    <t>Definir metodología (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Planificación del proyecto (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Inventario de Habilidades y Recursos (Preliminar)</t>
+  </si>
+  <si>
+    <t>Iteración 3</t>
+  </si>
+  <si>
+    <t>Modelado de Negocio</t>
+  </si>
+  <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>Plan de Calidad (1ra Revision)</t>
+  </si>
+  <si>
+    <t>Revisión Técnica Formal o por pares (RTF - Template) (Preliminar)</t>
+  </si>
+  <si>
+    <t>Definir metodología (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Lista de Riesgos (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Plan de Gestión de Riesgos (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Inventario de Habilidades y Recursos (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Gestión del cambio y configuración</t>
+  </si>
+  <si>
+    <t>Iteración 4 (Preliminar al Hito 1)</t>
+  </si>
+  <si>
+    <t>Documento de Visión (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Descripción de los Procesos de Negocio (1ra Revision)</t>
+  </si>
+  <si>
+    <t>Diagrama de Casos de Uso del Negocio (solo diagrama) (2da Revision)</t>
+  </si>
+  <si>
+    <t>Diagrama de Actividades más relevante (1ra Revision)</t>
+  </si>
+  <si>
+    <t>Documento de Cruce: Proceso – Actividad – CUN (Averiguar)</t>
+  </si>
+  <si>
+    <t>Documento de Relevamiento (1ra Entrevista)</t>
+  </si>
+  <si>
+    <t>Especificación de Requerimientos (Preliminar)</t>
+  </si>
+  <si>
+    <t>Especificacion Complementaria (No Funcional) (Preliminar)</t>
+  </si>
+  <si>
+    <t>Documento de Investigación (1ra Revision)</t>
+  </si>
+  <si>
+    <t>Depuración de requerimientos -&gt; Validación 1 a 1 (Averiguar)</t>
+  </si>
+  <si>
+    <t>Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos). (Averiguar)</t>
+  </si>
+  <si>
+    <t>Revision Técnica Formal o por pares (RTF - Template) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Definir metodología (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Lista de Riesgos (2da Revisión y Verificación)</t>
+  </si>
+  <si>
+    <t>Minuta de Reunion con el cliente (Con lo visto en la iteración anterior)</t>
+  </si>
+  <si>
+    <t>Informe de Solución (Preliminar)</t>
+  </si>
+  <si>
+    <t>Iteración 5</t>
+  </si>
+  <si>
+    <t>Documento de Vision (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Descripción de los Procesos de Negocio (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Diagrama de Casos de Uso del Negocio (solo diagrama) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Diagrama de Actividades más relevante (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Diagrama de contexto (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Identificación de Actores (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Glosario Organizacional (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Documento de Relevamiento (2da Entevista)</t>
+  </si>
+  <si>
+    <t>Especificación de Requerimientos (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Especificación Complementaria (No Funcional) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Documento de Investigación (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Prototipo de Pantallas (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Diagrama de Clases (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Checklist de verificacion (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Documento de Alcance (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Planificación del proyecto (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Minuta de reuniones con el cliente (Con lo visto en la iteración anterior)</t>
+  </si>
+  <si>
+    <t>Documento Post-Mortem (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Lista de Riesgos (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Plan de Iteración (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Documento de configuración (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Documento de trazabilidad (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Informe de Solución (Revisión Final)</t>
+  </si>
+  <si>
+    <t>HITO 1: (Objetivos de Sistema - Informe de Solución)</t>
+  </si>
+  <si>
+    <t>Iteración 6</t>
+  </si>
+  <si>
+    <t>Diagrama de Casos de Uso (Preliminar)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Grueso (Preliminar)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Fino (Preliminar)</t>
+  </si>
+  <si>
+    <t>Diagramas de Secuencia (Preliminar)</t>
+  </si>
+  <si>
+    <t>Depuración de requerimientos -&gt; Validación 1 a 1</t>
+  </si>
+  <si>
+    <t>Documento de trazabilidad de Proceso – Actividad – CUN – Requerimiento – Alcance – Caso de uso de sistema (Llevar una codificación que permita la trazabilidad de los documentos).</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Modelo de Datos (DER) (Preliminar)</t>
+  </si>
+  <si>
+    <t>Diagrama de Despliegue (Preliminar)</t>
+  </si>
+  <si>
+    <t>Sistemas existentes (Arquitectura existente) (Preliminar)</t>
+  </si>
+  <si>
+    <t>Definición de Arquitectura (General de Software y especifica de componentes) (Preliminar)</t>
+  </si>
+  <si>
+    <t>Lista de Riesgos (Verificación)</t>
+  </si>
+  <si>
+    <t>Iteración 7</t>
+  </si>
+  <si>
+    <t>Diagrama de Casos de Uso (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Grueso (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Fino (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Prototipo de Pantallas (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Diagramas de Secuencia (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Datos (DER) (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Diagrama de Despliegue (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Diseño Diagrama de clases (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Diseño Diagrama de Secuencia (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Sistemas existentes (Arquitectura existente) (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Definición de Arquitectura (General de Software y especifica de componentes) (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Iteración 8</t>
+  </si>
+  <si>
+    <t>Diagrama de Casos de Uso (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Grueso (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Fino (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Diagramas de Secuencia (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Diagrama de Clases (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Datos (DER) (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Diagrama de Despliegue (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Diseño Diagrama de clases (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Diseño Diagrama de Secuencia (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Sistemas existentes (Arquitectura existente) (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Definición de Arquitectura (General de Software y especifica de componentes) (2da Revisión)</t>
+  </si>
+  <si>
+    <t>Iteración 9 (Preliminar al Hito 2)</t>
+  </si>
+  <si>
+    <t>Diagrama de Casos de Uso (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Grueso (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Fino (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Prototipo de Pantallas (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Diagramas de Secuencia (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Diagrama de Clases (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Datos (DER) (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Diagrama de Despliegue (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Diseño Diagrama de clases (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Diseño Diagrama de Secuencia (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Sistemas existentes (Arquitectura existente) (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Definición de Arquitectura (General de Software y especifica de componentes) (3ra Revisión)</t>
+  </si>
+  <si>
+    <t>Carpeta del Programador (Preliminar)</t>
+  </si>
+  <si>
+    <t>Iteración 10</t>
+  </si>
+  <si>
+    <t>Diagrama de Casos de Uso (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Grueso (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Fino (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Prototipo de Pantallas (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Diagramas de Secuencia (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Diagrama de Clases (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Datos (DER) (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Diagrama de Despliegue (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Diseño Diagrama de clases (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Modelo de Diseño Diagrama de Secuencia (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Sistemas existentes (Arquitectura existente) (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Definición de Arquitectura (General de Software y especifica de componentes) (4to Revisión)</t>
+  </si>
+  <si>
+    <t>Carpeta del Programador (1ra Revisión)</t>
+  </si>
+  <si>
+    <t>Iteración 11</t>
+  </si>
+  <si>
+    <t>Diagrama de Casos de Uso (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Grueso (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Documento de Casos de Uso del Sistema – Trazo Fino (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Prototipo de Pantallas (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Diagramas de Secuencia (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Diagrama de Clases (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Modelo de Datos (DER) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Diagrama de Despliegue (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Modelo de Diseño Diagrama de clases (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Modelo de Diseño Diagrama de Secuencia (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Sistemas existentes (Arquitectura existente) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Definición de Arquitectura (General de Software y especifica de componentes) (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Carpeta del Programador (Revisión Final)</t>
+  </si>
+  <si>
+    <t>Disciplinas</t>
+  </si>
+  <si>
+    <t>Fecha Desde</t>
+  </si>
+  <si>
+    <t>Fecha Hasta</t>
+  </si>
+  <si>
+    <t>HITO 2: Entrega Final</t>
+  </si>
+  <si>
+    <t>ELABORACIÓN</t>
+  </si>
+  <si>
+    <t>Fases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +663,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +682,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -284,16 +752,46 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -620,487 +1118,487 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>40997.375</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>41004.791666666664</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>41005.375</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>41011.958333333336</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9">
         <v>3</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>41011.791666666664</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>41017.833333333336</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9">
         <v>4</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>41018.791666666664</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>41025.833333333336</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9" t="s">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9" t="s">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1128,13 +1626,2186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E227"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="11" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.5703125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30">
+      <c r="A1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="15">
+        <v>40997.375</v>
+      </c>
+      <c r="D2" s="15">
+        <v>41004.791666666664</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="15">
+        <v>41004</v>
+      </c>
+      <c r="D9" s="15">
+        <v>41011</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="15">
+        <v>41011</v>
+      </c>
+      <c r="D21" s="15">
+        <v>41017</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="15">
+        <v>41017</v>
+      </c>
+      <c r="D45" s="15">
+        <v>41025</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="60">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30">
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="13"/>
+      <c r="B78" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="15">
+        <v>41026</v>
+      </c>
+      <c r="D78" s="15">
+        <v>41032</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="13"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="13"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="60">
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30">
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="13"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="15">
+        <v>41033</v>
+      </c>
+      <c r="D112" s="15">
+        <v>41039</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="17"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30">
+      <c r="A114" s="17"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="17"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="17"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="17"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="17"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="45">
+      <c r="A120" s="17"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="17"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="17"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="17"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="30">
+      <c r="A125" s="17"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="17"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30">
+      <c r="A127" s="17"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="17"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="17"/>
+      <c r="B129" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" s="15">
+        <v>41040</v>
+      </c>
+      <c r="D129" s="15">
+        <v>41046</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="17"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="30">
+      <c r="A131" s="17"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="17"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="17"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="17"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="17"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="17"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="45">
+      <c r="A137" s="17"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="17"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="17"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="17"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="17"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="17"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="17"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="30">
+      <c r="A144" s="17"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="17"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="30">
+      <c r="A146" s="17"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="17"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="17"/>
+      <c r="B148" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="15">
+        <v>41047</v>
+      </c>
+      <c r="D148" s="15">
+        <v>41053</v>
+      </c>
+      <c r="E148" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="17"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30">
+      <c r="A150" s="17"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="30">
+      <c r="A151" s="17"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="17"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="17"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="17"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="17"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="45">
+      <c r="A156" s="17"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="17"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="17"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="17"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="17"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="17"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="17"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="30">
+      <c r="A163" s="17"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="17"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="30">
+      <c r="A165" s="17"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="17"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="17"/>
+      <c r="B167" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C167" s="15">
+        <v>41054</v>
+      </c>
+      <c r="D167" s="15">
+        <v>41060</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="17"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="30">
+      <c r="A169" s="17"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="17"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="17"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="17"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="17"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="17"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="45">
+      <c r="A175" s="17"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="17"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="17"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="17"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="17"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="17"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="17"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="30">
+      <c r="A182" s="17"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="17"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="30">
+      <c r="A184" s="17"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="17"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="17"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="17"/>
+      <c r="B187" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C187" s="15">
+        <v>41061</v>
+      </c>
+      <c r="D187" s="15">
+        <v>41067</v>
+      </c>
+      <c r="E187" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="17"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="30">
+      <c r="A189" s="17"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="17"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="17"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="17"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="17"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="17"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="45">
+      <c r="A195" s="17"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="17"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="17"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="17"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="17"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="17"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="17"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="30">
+      <c r="A202" s="17"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="17"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="30">
+      <c r="A204" s="17"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="17"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="17"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="17"/>
+      <c r="B207" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C207" s="15">
+        <v>41068</v>
+      </c>
+      <c r="D207" s="15">
+        <v>41074</v>
+      </c>
+      <c r="E207" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="17"/>
+      <c r="B208" s="14"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="30">
+      <c r="A209" s="17"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="30">
+      <c r="A210" s="17"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="17"/>
+      <c r="B211" s="14"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="17"/>
+      <c r="B212" s="14"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="17"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="17"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="45">
+      <c r="A215" s="17"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="17"/>
+      <c r="B216" s="14"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="17"/>
+      <c r="B217" s="14"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="17"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="17"/>
+      <c r="B219" s="14"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="17"/>
+      <c r="B220" s="14"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="17"/>
+      <c r="B221" s="14"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="30">
+      <c r="A222" s="17"/>
+      <c r="B222" s="14"/>
+      <c r="C222" s="15"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="17"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="30">
+      <c r="A224" s="17"/>
+      <c r="B224" s="14"/>
+      <c r="C224" s="15"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="17"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="17"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="17"/>
+      <c r="B227" s="14"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:E227">
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+  </autoFilter>
+  <mergeCells count="35">
+    <mergeCell ref="B207:B227"/>
+    <mergeCell ref="C207:C227"/>
+    <mergeCell ref="D207:D227"/>
+    <mergeCell ref="A2:A111"/>
+    <mergeCell ref="A112:A227"/>
+    <mergeCell ref="B167:B186"/>
+    <mergeCell ref="C167:C186"/>
+    <mergeCell ref="D167:D186"/>
+    <mergeCell ref="B187:B206"/>
+    <mergeCell ref="C187:C206"/>
+    <mergeCell ref="D187:D206"/>
+    <mergeCell ref="B129:B147"/>
+    <mergeCell ref="C129:C147"/>
+    <mergeCell ref="D129:D147"/>
+    <mergeCell ref="B148:B166"/>
+    <mergeCell ref="C148:C166"/>
+    <mergeCell ref="D148:D166"/>
+    <mergeCell ref="B78:B111"/>
+    <mergeCell ref="C78:C111"/>
+    <mergeCell ref="D78:D111"/>
+    <mergeCell ref="B112:B128"/>
+    <mergeCell ref="C112:C128"/>
+    <mergeCell ref="D112:D128"/>
+    <mergeCell ref="C45:C77"/>
+    <mergeCell ref="D45:D77"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="B21:B44"/>
+    <mergeCell ref="B45:B77"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="D9:D20"/>
+    <mergeCell ref="C21:C44"/>
+    <mergeCell ref="D21:D44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
